--- a/src/main/resources/cases_v7.xlsx
+++ b/src/main/resources/cases_v7.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9405" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="9405" windowWidth="22935"/>
   </bookViews>
   <sheets>
-    <sheet name="接口信息" sheetId="1" r:id="rId1"/>
-    <sheet name="用例" sheetId="2" r:id="rId2"/>
+    <sheet name="接口信息" r:id="rId1" sheetId="1"/>
+    <sheet name="用例" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">用例!$A$1:$D$5</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">用例!$A$1:$D$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <oleSize ref="D1:H16"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="11">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -343,15 +343,48 @@
 mobilephone='18813989449'"},
 {"no":"2","sql":"select count(*) as totalNum from financelog where IncomeMemberId = (select id from member where mobilephone='18813989449')"}]</t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[{"columnLablesAndValues":{},"no":"1"}]</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
+  </si>
+  <si>
+    <t>[{"columnLablesAndValues":{},"no":"1"},{"columnLablesAndValues":{},"no":"2"}]</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"520000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -828,246 +861,246 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="18" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="14" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="5" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="32" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1077,10 +1110,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1238,7 +1271,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1247,13 +1280,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1263,7 +1296,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1272,7 +1305,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1281,7 +1314,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1291,12 +1324,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1327,7 +1360,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1346,7 +1379,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1358,9 +1391,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -1368,10 +1401,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.2166666666667" customWidth="1"/>
-    <col min="2" max="2" width="22.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="77.2166666666667" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.2166666666667" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="22.1083333333333" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="77.2166666666667" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1572,18 +1605,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/recharge"/>
-    <hyperlink ref="D5" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/withdraw"/>
+    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/recharge" r:id="rId1" ref="D4"/>
+    <hyperlink display="http://119.23.241.154:8080/futureloan/mvc/api/member/withdraw" r:id="rId2" ref="D5"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
@@ -1591,18 +1624,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1083333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57" style="2" customWidth="1"/>
-    <col min="4" max="4" width="79.1083333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="91" customWidth="1"/>
-    <col min="6" max="6" width="38.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="42.8833333333333" customWidth="1"/>
-    <col min="8" max="8" width="39.2166666666667" customWidth="1"/>
-    <col min="9" max="9" width="45" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="17.3333333333333" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="18.1083333333333" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="2" width="57.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="2" width="79.1083333333333" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="91.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="38.6666666666667" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="42.8833333333333" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="39.2166666666667" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="45.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:9">
+    <row customHeight="1" ht="18" r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1631,7 +1664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1" spans="1:4">
+    <row customHeight="1" ht="12" r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1644,8 +1677,11 @@
       <c r="D2" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:4">
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1658,8 +1694,11 @@
       <c r="D3" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:4">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1672,8 +1711,11 @@
       <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:4">
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1686,8 +1728,11 @@
       <c r="D5" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:8">
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row ht="40.5" r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1700,12 +1745,20 @@
       <c r="D6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
       <c r="F6" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
       <c r="H6" s="10" t="s">
         <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1721,6 +1774,9 @@
       <c r="D7" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
@@ -1735,6 +1791,9 @@
       <c r="D8" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
@@ -1749,6 +1808,9 @@
       <c r="D9" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
@@ -1763,6 +1825,9 @@
       <c r="D10" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
@@ -1777,6 +1842,9 @@
       <c r="D11" s="6" t="s">
         <v>57</v>
       </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
@@ -1791,6 +1859,9 @@
       <c r="D12" s="9" t="s">
         <v>58</v>
       </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3">
@@ -1805,6 +1876,9 @@
       <c r="D13" s="6" t="s">
         <v>60</v>
       </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3">
@@ -1819,6 +1893,9 @@
       <c r="D14" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3">
@@ -1833,6 +1910,9 @@
       <c r="D15" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3">
@@ -1847,6 +1927,9 @@
       <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3">
@@ -1861,6 +1944,9 @@
       <c r="D17" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3">
@@ -1875,6 +1961,9 @@
       <c r="D18" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3">
@@ -1889,6 +1978,9 @@
       <c r="D19" s="6" t="s">
         <v>72</v>
       </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3">
@@ -1903,8 +1995,11 @@
       <c r="D20" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" ht="108" spans="1:8">
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row ht="108" r="21" spans="1:8">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1917,17 +2012,25 @@
       <c r="D21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="F21" s="10" t="s">
         <v>77</v>
       </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
       <c r="H21" s="10" t="s">
         <v>77</v>
       </c>
+      <c r="I21" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/cases_v7.xlsx
+++ b/src/main/resources/cases_v7.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="14">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -375,6 +375,15 @@
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"520000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"540000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"550000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":25575,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18813989449","leaveamount":"560000.00","type":"1","regtime":"2018-08-16 22:26:27.0"},"msg":"充值成功"}</t>
   </si>
 </sst>
 </file>
@@ -1401,10 +1410,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.2166666666667" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="22.1083333333333" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="77.2166666666667" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="19.2166666666667" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.1083333333333" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="77.2166666666667" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1624,15 +1633,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="17.3333333333333" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="18.1083333333333" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="2" width="57.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="2" width="79.1083333333333" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="91.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="38.6666666666667" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="42.8833333333333" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="39.2166666666667" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="45.0" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="17.3333333333333" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="18.1083333333333" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="57.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="79.1083333333333" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="91.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="38.6666666666667" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.8833333333333" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.2166666666667" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="45.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="18" r="1" spans="1:9">
@@ -2013,7 +2022,7 @@
         <v>76</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>77</v>
